--- a/output/경기동로_W_가을_배출량/경기동로_W_가을_배출량_PM10_재비산.xlsx
+++ b/output/경기동로_W_가을_배출량/경기동로_W_가을_배출량_PM10_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>31.20650488515025</v>
+        <v>6.934778863366719</v>
       </c>
       <c r="C2">
-        <v>2.627398230946367</v>
+        <v>0.5838662735436371</v>
       </c>
       <c r="D2">
-        <v>15.71139381177903</v>
+        <v>3.491420847062006</v>
       </c>
       <c r="E2">
-        <v>9.483465413753141</v>
+        <v>2.10743675861181</v>
       </c>
       <c r="F2">
-        <v>14.13472994623907</v>
+        <v>3.141051099164237</v>
       </c>
       <c r="G2">
-        <v>33.76903884849064</v>
+        <v>7.504230855220144</v>
       </c>
       <c r="H2">
-        <v>1.631443111670737</v>
+        <v>0.3625429137046082</v>
       </c>
       <c r="I2">
-        <v>108.5639742480292</v>
+        <v>24.12532761067316</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>32.07450038526702</v>
+        <v>7.127666752281557</v>
       </c>
       <c r="C3">
-        <v>3.312806465106289</v>
+        <v>0.7361792144680642</v>
       </c>
       <c r="D3">
-        <v>11.97058576135545</v>
+        <v>2.6601301691901</v>
       </c>
       <c r="E3">
-        <v>7.207433714452388</v>
+        <v>1.601651936544975</v>
       </c>
       <c r="F3">
-        <v>13.6150707570391</v>
+        <v>3.025571279342022</v>
       </c>
       <c r="G3">
-        <v>28.34931656416498</v>
+        <v>6.299848125369997</v>
       </c>
       <c r="H3">
-        <v>1.019651944794211</v>
+        <v>0.2265893210653802</v>
       </c>
       <c r="I3">
-        <v>97.54936559217943</v>
+        <v>21.6776367982621</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>32.77716340917106</v>
+        <v>7.2838140909269</v>
       </c>
       <c r="C4">
-        <v>3.65551058218625</v>
+        <v>0.8123356849302777</v>
       </c>
       <c r="D4">
-        <v>8.603858515974228</v>
+        <v>1.911968559105385</v>
       </c>
       <c r="E4">
-        <v>9.862804030303268</v>
+        <v>2.191734228956281</v>
       </c>
       <c r="F4">
-        <v>12.88754789215915</v>
+        <v>2.863899531590922</v>
       </c>
       <c r="G4">
-        <v>14.17465828208249</v>
+        <v>3.149924062684998</v>
       </c>
       <c r="H4">
-        <v>1.019651944794211</v>
+        <v>0.2265893210653802</v>
       </c>
       <c r="I4">
-        <v>82.98119465667065</v>
+        <v>18.44026547926014</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>35.58781550478724</v>
+        <v>7.908403445508276</v>
       </c>
       <c r="C5">
-        <v>3.312806465106289</v>
+        <v>0.7361792144680642</v>
       </c>
       <c r="D5">
-        <v>13.46690898152488</v>
+        <v>2.992646440338863</v>
       </c>
       <c r="E5">
-        <v>11.7594971130539</v>
+        <v>2.613221580678643</v>
       </c>
       <c r="F5">
-        <v>9.561729081279367</v>
+        <v>2.124828684728749</v>
       </c>
       <c r="G5">
-        <v>9.171837711935732</v>
+        <v>2.03818615820794</v>
       </c>
       <c r="H5">
-        <v>1.631443111670737</v>
+        <v>0.3625429137046082</v>
       </c>
       <c r="I5">
-        <v>84.49203796935815</v>
+        <v>18.77600843763514</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>42.69711198193404</v>
+        <v>9.488247107096454</v>
       </c>
       <c r="C6">
-        <v>3.76974528787957</v>
+        <v>0.837721175084349</v>
       </c>
       <c r="D6">
-        <v>12.34466656639781</v>
+        <v>2.743259236977292</v>
       </c>
       <c r="E6">
-        <v>8.345449564102768</v>
+        <v>1.854544347578393</v>
       </c>
       <c r="F6">
-        <v>7.587024162319497</v>
+        <v>1.686005369404334</v>
       </c>
       <c r="G6">
-        <v>5.419722284325657</v>
+        <v>1.204382729850146</v>
       </c>
       <c r="H6">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="I6">
-        <v>80.57158062487703</v>
+        <v>17.90479569441712</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>37.0344746716485</v>
+        <v>8.229883260366336</v>
       </c>
       <c r="C7">
-        <v>0.7996429398532422</v>
+        <v>0.1776984310784983</v>
       </c>
       <c r="D7">
-        <v>11.97058576135545</v>
+        <v>2.6601301691901</v>
       </c>
       <c r="E7">
-        <v>13.2768515792544</v>
+        <v>2.950411462056533</v>
       </c>
       <c r="F7">
-        <v>4.365137189279711</v>
+        <v>0.9700304865066025</v>
       </c>
       <c r="G7">
-        <v>4.169017141788967</v>
+        <v>0.926448253730882</v>
       </c>
       <c r="H7">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="I7">
-        <v>72.02357006109797</v>
+        <v>16.0052377913551</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>29.55318012302306</v>
+        <v>6.567373360671793</v>
       </c>
       <c r="C8">
-        <v>2.970102348026328</v>
+        <v>0.6600227440058506</v>
       </c>
       <c r="D8">
-        <v>6.359373685720086</v>
+        <v>1.41319415238224</v>
       </c>
       <c r="E8">
-        <v>11.00081987995365</v>
+        <v>2.444626639989699</v>
       </c>
       <c r="F8">
-        <v>4.98872821631967</v>
+        <v>1.10860627029326</v>
       </c>
       <c r="G8">
-        <v>5.002820570146761</v>
+        <v>1.111737904477058</v>
       </c>
       <c r="H8">
-        <v>0.8157215558353687</v>
+        <v>0.1812714568523041</v>
       </c>
       <c r="I8">
-        <v>60.69074637902492</v>
+        <v>13.48683252867221</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>25.95719876539649</v>
+        <v>5.768266392310331</v>
       </c>
       <c r="C9">
-        <v>4.569388227732811</v>
+        <v>1.015419606162847</v>
       </c>
       <c r="D9">
-        <v>7.481616100847157</v>
+        <v>1.662581355743813</v>
       </c>
       <c r="E9">
-        <v>16.69089912820554</v>
+        <v>3.709088695156786</v>
       </c>
       <c r="F9">
-        <v>3.014023297359801</v>
+        <v>0.6697829549688448</v>
       </c>
       <c r="G9">
-        <v>7.087329141041244</v>
+        <v>1.574962031342499</v>
       </c>
       <c r="H9">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="I9">
-        <v>65.20831543850072</v>
+        <v>14.49073676411127</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>22.85721483640805</v>
+        <v>5.079381074757349</v>
       </c>
       <c r="C10">
-        <v>1.941989996786445</v>
+        <v>0.4315533326192101</v>
       </c>
       <c r="D10">
-        <v>5.611212075635371</v>
+        <v>1.246936016807859</v>
       </c>
       <c r="E10">
-        <v>10.2421426468534</v>
+        <v>2.276031699300755</v>
       </c>
       <c r="F10">
-        <v>2.910091459519808</v>
+        <v>0.6466869910044017</v>
       </c>
       <c r="G10">
-        <v>3.752115427610072</v>
+        <v>0.8338034283577934</v>
       </c>
       <c r="H10">
-        <v>1.223582333753053</v>
+        <v>0.2719071852784563</v>
       </c>
       <c r="I10">
-        <v>48.53834877656619</v>
+        <v>10.78629972812582</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>12.89593314459189</v>
+        <v>2.86576292102042</v>
       </c>
       <c r="C11">
-        <v>0.9138776455465625</v>
+        <v>0.2030839212325694</v>
       </c>
       <c r="D11">
-        <v>1.870404025211789</v>
+        <v>0.4156453389359533</v>
       </c>
       <c r="E11">
-        <v>6.828095097902262</v>
+        <v>1.517354466200503</v>
       </c>
       <c r="F11">
-        <v>2.598295945999828</v>
+        <v>0.577399099111073</v>
       </c>
       <c r="G11">
-        <v>2.084508570894484</v>
+        <v>0.463224126865441</v>
       </c>
       <c r="H11">
-        <v>1.019651944794211</v>
+        <v>0.2265893210653802</v>
       </c>
       <c r="I11">
-        <v>28.21076637494103</v>
+        <v>6.269059194431339</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>8.845287477380332</v>
+        <v>1.965619439417853</v>
       </c>
       <c r="C12">
-        <v>0.9138776455465625</v>
+        <v>0.2030839212325694</v>
       </c>
       <c r="D12">
-        <v>1.496323220169431</v>
+        <v>0.3325162711487625</v>
       </c>
       <c r="E12">
-        <v>2.65537031585088</v>
+        <v>0.5900822924113066</v>
       </c>
       <c r="F12">
-        <v>1.247182054079917</v>
+        <v>0.2771515675733149</v>
       </c>
       <c r="G12">
-        <v>1.667606856715587</v>
+        <v>0.3705793014923527</v>
       </c>
       <c r="H12">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="I12">
-        <v>17.23350834766039</v>
+        <v>3.829668521702311</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>5.455971715019643</v>
+        <v>1.212438158893254</v>
       </c>
       <c r="C13">
-        <v>0.7996429398532422</v>
+        <v>0.1776984310784983</v>
       </c>
       <c r="D13">
-        <v>0.3740808050423579</v>
+        <v>0.08312906778719063</v>
       </c>
       <c r="F13">
-        <v>1.143250216239925</v>
+        <v>0.2540556036088721</v>
       </c>
       <c r="G13">
-        <v>1.25070514253669</v>
+        <v>0.2779344761192645</v>
       </c>
       <c r="H13">
-        <v>0.2039303889588422</v>
+        <v>0.04531786421307603</v>
       </c>
       <c r="I13">
-        <v>9.227581207650701</v>
+        <v>2.050573601700156</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>4.422643738690166</v>
+        <v>0.9828097197089263</v>
       </c>
       <c r="C14">
-        <v>1.028112351239883</v>
+        <v>0.2284694113866406</v>
       </c>
       <c r="D14">
-        <v>1.870404025211789</v>
+        <v>0.4156453389359533</v>
       </c>
       <c r="F14">
-        <v>1.455045729759904</v>
+        <v>0.3233434955022009</v>
       </c>
       <c r="G14">
-        <v>1.25070514253669</v>
+        <v>0.2779344761192645</v>
       </c>
       <c r="H14">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="I14">
-        <v>10.43477176535612</v>
+        <v>2.318838170079138</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,22 +809,22 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>3.306649524254329</v>
+        <v>0.7348110053898514</v>
       </c>
       <c r="C15">
-        <v>0.5711735284666014</v>
+        <v>0.1269274507703559</v>
       </c>
       <c r="D15">
-        <v>0.7481616100847157</v>
+        <v>0.1662581355743813</v>
       </c>
       <c r="F15">
-        <v>0.9353865405599382</v>
+        <v>0.2078636756799862</v>
       </c>
       <c r="G15">
-        <v>2.50141028507338</v>
+        <v>0.5558689522385291</v>
       </c>
       <c r="I15">
-        <v>8.062781488438965</v>
+        <v>1.791729219653104</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,25 +832,25 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>2.851985214669359</v>
+        <v>0.633774492148747</v>
       </c>
       <c r="C16">
-        <v>0.5711735284666014</v>
+        <v>0.1269274507703559</v>
       </c>
       <c r="D16">
-        <v>0.7481616100847157</v>
+        <v>0.1662581355743813</v>
       </c>
       <c r="E16">
-        <v>1.896693082750628</v>
+        <v>0.4214873517223619</v>
       </c>
       <c r="F16">
-        <v>0.8314547027199449</v>
+        <v>0.1847677117155433</v>
       </c>
       <c r="G16">
-        <v>2.084508570894484</v>
+        <v>0.463224126865441</v>
       </c>
       <c r="I16">
-        <v>8.983976709585733</v>
+        <v>1.996439268796831</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -858,25 +858,25 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>5.455971715019643</v>
+        <v>1.212438158893254</v>
       </c>
       <c r="C17">
-        <v>0.6854082341599218</v>
+        <v>0.152312940924427</v>
       </c>
       <c r="D17">
-        <v>2.992646440338863</v>
+        <v>0.6650325422975251</v>
       </c>
       <c r="E17">
-        <v>0.3793386165501257</v>
+        <v>0.08429747034447239</v>
       </c>
       <c r="F17">
-        <v>1.66290940543989</v>
+        <v>0.3695354234310867</v>
       </c>
       <c r="G17">
-        <v>2.084508570894484</v>
+        <v>0.463224126865441</v>
       </c>
       <c r="I17">
-        <v>13.26078298240293</v>
+        <v>2.946840662756207</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -884,28 +884,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>18.18657238339883</v>
+        <v>4.041460529644182</v>
       </c>
       <c r="C18">
-        <v>1.028112351239883</v>
+        <v>0.2284694113866406</v>
       </c>
       <c r="D18">
-        <v>8.603858515974228</v>
+        <v>1.911968559105385</v>
       </c>
       <c r="E18">
-        <v>3.034708932401005</v>
+        <v>0.6743797627557792</v>
       </c>
       <c r="F18">
-        <v>5.092660054159663</v>
+        <v>1.131702234257703</v>
       </c>
       <c r="G18">
-        <v>7.921132569399039</v>
+        <v>1.760251682088676</v>
       </c>
       <c r="H18">
-        <v>0.2039303889588422</v>
+        <v>0.04531786421307603</v>
       </c>
       <c r="I18">
-        <v>44.0709751955315</v>
+        <v>9.79355004345144</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -913,28 +913,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>28.85051709911903</v>
+        <v>6.411226022026455</v>
       </c>
       <c r="C19">
-        <v>0.7996429398532422</v>
+        <v>0.1776984310784983</v>
       </c>
       <c r="D19">
-        <v>9.726100931101303</v>
+        <v>2.161355762466957</v>
       </c>
       <c r="E19">
-        <v>16.31156051165541</v>
+        <v>3.624791224812312</v>
       </c>
       <c r="F19">
-        <v>8.626342540719429</v>
+        <v>1.916965009048762</v>
       </c>
       <c r="G19">
-        <v>12.090149711188</v>
+        <v>2.686699935819557</v>
       </c>
       <c r="H19">
-        <v>0.6117911668765267</v>
+        <v>0.1359535926392281</v>
       </c>
       <c r="I19">
-        <v>77.01610490051294</v>
+        <v>17.11468997789177</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -942,25 +942,25 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>35.0504849570959</v>
+        <v>7.788996657132425</v>
       </c>
       <c r="C20">
-        <v>1.941989996786445</v>
+        <v>0.4315533326192101</v>
       </c>
       <c r="D20">
-        <v>7.855696905889514</v>
+        <v>1.745710423531003</v>
       </c>
       <c r="E20">
-        <v>14.41486742890478</v>
+        <v>3.20330387308995</v>
       </c>
       <c r="F20">
-        <v>6.755569459599553</v>
+        <v>1.50123765768879</v>
       </c>
       <c r="G20">
-        <v>9.171837711935732</v>
+        <v>2.03818615820794</v>
       </c>
       <c r="I20">
-        <v>75.19044646021193</v>
+        <v>16.70898810226932</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -968,28 +968,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>37.77847081460573</v>
+        <v>8.395215736579051</v>
       </c>
       <c r="C21">
-        <v>2.627398230946367</v>
+        <v>0.5838662735436371</v>
       </c>
       <c r="D21">
-        <v>12.71874737144017</v>
+        <v>2.826388304764481</v>
       </c>
       <c r="E21">
-        <v>11.7594971130539</v>
+        <v>2.613221580678643</v>
       </c>
       <c r="F21">
-        <v>8.106683351519463</v>
+        <v>1.801485189226548</v>
       </c>
       <c r="G21">
-        <v>11.25634628283021</v>
+        <v>2.50141028507338</v>
       </c>
       <c r="H21">
-        <v>1.835373500629579</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I21">
-        <v>86.08251666502542</v>
+        <v>19.12944814778342</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -997,28 +997,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>33.27316083780921</v>
+        <v>7.39403574173538</v>
       </c>
       <c r="C22">
-        <v>3.65551058218625</v>
+        <v>0.8123356849302777</v>
       </c>
       <c r="D22">
-        <v>16.45955542186375</v>
+        <v>3.657678982636388</v>
       </c>
       <c r="E22">
-        <v>9.862804030303268</v>
+        <v>2.191734228956281</v>
       </c>
       <c r="F22">
-        <v>13.30327524351912</v>
+        <v>2.956283387448694</v>
       </c>
       <c r="G22">
-        <v>25.4310045649127</v>
+        <v>5.651334347758377</v>
       </c>
       <c r="H22">
-        <v>0.8157215558353687</v>
+        <v>0.1812714568523041</v>
       </c>
       <c r="I22">
-        <v>102.8010322364297</v>
+        <v>22.84467383031771</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1026,28 +1026,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>27.77585600373636</v>
+        <v>6.172412445274749</v>
       </c>
       <c r="C23">
-        <v>3.312806465106289</v>
+        <v>0.7361792144680642</v>
       </c>
       <c r="D23">
-        <v>7.855696905889514</v>
+        <v>1.745710423531003</v>
       </c>
       <c r="E23">
-        <v>8.724788180652892</v>
+        <v>1.938841817922865</v>
       </c>
       <c r="F23">
-        <v>14.03079810839907</v>
+        <v>3.117955135199794</v>
       </c>
       <c r="G23">
-        <v>32.51833370595395</v>
+        <v>7.226296379100877</v>
       </c>
       <c r="H23">
-        <v>1.631443111670737</v>
+        <v>0.3625429137046082</v>
       </c>
       <c r="I23">
-        <v>95.84972248140882</v>
+        <v>21.29993832920196</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1055,28 +1055,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>25.83319940823696</v>
+        <v>5.740710979608215</v>
       </c>
       <c r="C24">
-        <v>3.312806465106289</v>
+        <v>0.7361792144680642</v>
       </c>
       <c r="D24">
-        <v>8.977939321016589</v>
+        <v>1.995097626892575</v>
       </c>
       <c r="E24">
-        <v>8.345449564102768</v>
+        <v>1.854544347578393</v>
       </c>
       <c r="F24">
-        <v>13.40720708135911</v>
+        <v>2.979379351413137</v>
       </c>
       <c r="G24">
-        <v>38.7718594186374</v>
+        <v>8.615968759697198</v>
       </c>
       <c r="H24">
-        <v>1.019651944794211</v>
+        <v>0.2265893210653802</v>
       </c>
       <c r="I24">
-        <v>99.66811320325331</v>
+        <v>22.14846960072296</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1084,28 +1084,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>27.73452288468319</v>
+        <v>6.163227307707379</v>
       </c>
       <c r="C25">
-        <v>4.455153522039491</v>
+        <v>0.990034116008776</v>
       </c>
       <c r="D25">
-        <v>10.84834334622838</v>
+        <v>2.410742965828528</v>
       </c>
       <c r="E25">
-        <v>8.724788180652892</v>
+        <v>1.938841817922865</v>
       </c>
       <c r="F25">
-        <v>11.01677481103927</v>
+        <v>2.448172180230949</v>
       </c>
       <c r="G25">
-        <v>40.02256456117409</v>
+        <v>8.893903235816465</v>
       </c>
       <c r="H25">
-        <v>0.2039303889588422</v>
+        <v>0.04531786421307603</v>
       </c>
       <c r="I25">
-        <v>103.0060776947761</v>
+        <v>22.89023948772804</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1113,28 +1113,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>30.87583993272481</v>
+        <v>6.861297762827734</v>
       </c>
       <c r="C26">
-        <v>5.369031167586055</v>
+        <v>1.193118037241345</v>
       </c>
       <c r="D26">
-        <v>14.2150705916096</v>
+        <v>3.158904575913243</v>
       </c>
       <c r="E26">
-        <v>7.96611094755264</v>
+        <v>1.77024687723392</v>
       </c>
       <c r="F26">
-        <v>12.88754789215915</v>
+        <v>2.863899531590922</v>
       </c>
       <c r="G26">
-        <v>37.10425256192182</v>
+        <v>8.245389458204844</v>
       </c>
       <c r="H26">
-        <v>0.8157215558353687</v>
+        <v>0.1812714568523041</v>
       </c>
       <c r="I26">
-        <v>109.2335746493894</v>
+        <v>24.27412769986431</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1142,28 +1142,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>30.5038418612462</v>
+        <v>6.778631524721376</v>
       </c>
       <c r="C27">
-        <v>4.912092344812774</v>
+        <v>1.091576076625061</v>
       </c>
       <c r="D27">
-        <v>13.09282817648253</v>
+        <v>2.909517372551673</v>
       </c>
       <c r="E27">
-        <v>7.207433714452388</v>
+        <v>1.601651936544975</v>
       </c>
       <c r="F27">
-        <v>12.99147972999914</v>
+        <v>2.886995495555365</v>
       </c>
       <c r="G27">
-        <v>25.4310045649127</v>
+        <v>5.651334347758377</v>
       </c>
       <c r="H27">
-        <v>3.466816612300316</v>
+        <v>0.7704036916222926</v>
       </c>
       <c r="I27">
-        <v>97.60549700420606</v>
+        <v>21.69011044537912</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1171,28 +1171,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>31.82650167094792</v>
+        <v>7.072555926877318</v>
       </c>
       <c r="C28">
-        <v>4.797857639119453</v>
+        <v>1.066190586470989</v>
       </c>
       <c r="D28">
-        <v>14.2150705916096</v>
+        <v>3.158904575913243</v>
       </c>
       <c r="E28">
-        <v>9.104126797203021</v>
+        <v>2.023139288267337</v>
       </c>
       <c r="F28">
-        <v>12.57575237863917</v>
+        <v>2.794611639697593</v>
       </c>
       <c r="G28">
-        <v>31.26762856341726</v>
+        <v>6.948361902981611</v>
       </c>
       <c r="H28">
-        <v>1.427512722711895</v>
+        <v>0.3172250494915323</v>
       </c>
       <c r="I28">
-        <v>105.2144503636483</v>
+        <v>23.38098896969963</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1200,28 +1200,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>29.75984571828895</v>
+        <v>6.613299048508658</v>
       </c>
       <c r="C29">
-        <v>4.112449404959531</v>
+        <v>0.9138776455465625</v>
       </c>
       <c r="D29">
-        <v>12.71874737144017</v>
+        <v>2.826388304764481</v>
       </c>
       <c r="E29">
-        <v>10.2421426468534</v>
+        <v>2.276031699300755</v>
       </c>
       <c r="F29">
-        <v>8.626342540719429</v>
+        <v>1.916965009048762</v>
       </c>
       <c r="G29">
-        <v>25.4310045649127</v>
+        <v>5.651334347758377</v>
       </c>
       <c r="H29">
-        <v>1.019651944794211</v>
+        <v>0.2265893210653802</v>
       </c>
       <c r="I29">
-        <v>91.91018419196838</v>
+        <v>20.42448537599298</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1229,28 +1229,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>33.85182450455372</v>
+        <v>7.522627667678602</v>
       </c>
       <c r="C30">
-        <v>1.827755291093125</v>
+        <v>0.4061678424651389</v>
       </c>
       <c r="D30">
-        <v>14.58915139665196</v>
+        <v>3.242033643700435</v>
       </c>
       <c r="E30">
-        <v>7.207433714452388</v>
+        <v>1.601651936544975</v>
       </c>
       <c r="F30">
-        <v>8.314547027199449</v>
+        <v>1.847677117155434</v>
       </c>
       <c r="G30">
-        <v>24.18029942237601</v>
+        <v>5.373399871639114</v>
       </c>
       <c r="H30">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="I30">
-        <v>90.37887213424433</v>
+        <v>20.08419380760985</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1258,25 +1258,25 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>32.98382900443696</v>
+        <v>7.329739778763768</v>
       </c>
       <c r="C31">
-        <v>0.2284694113866406</v>
+        <v>0.05077098030814236</v>
       </c>
       <c r="D31">
-        <v>6.359373685720086</v>
+        <v>1.41319415238224</v>
       </c>
       <c r="E31">
-        <v>13.65619019580452</v>
+        <v>3.034708932401005</v>
       </c>
       <c r="F31">
-        <v>4.365137189279711</v>
+        <v>0.9700304865066025</v>
       </c>
       <c r="G31">
-        <v>18.76057713805035</v>
+        <v>4.169017141788967</v>
       </c>
       <c r="I31">
-        <v>76.35357662467827</v>
+        <v>16.96746147215072</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1284,25 +1284,25 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>29.34651452775718</v>
+        <v>6.521447672834929</v>
       </c>
       <c r="C32">
-        <v>1.028112351239883</v>
+        <v>0.2284694113866406</v>
       </c>
       <c r="D32">
-        <v>8.229777710931875</v>
+        <v>1.828839491318194</v>
       </c>
       <c r="E32">
-        <v>15.93222189510528</v>
+        <v>3.54049375446784</v>
       </c>
       <c r="F32">
-        <v>4.573000864959698</v>
+        <v>1.016222414435489</v>
       </c>
       <c r="G32">
-        <v>14.59155999626138</v>
+        <v>3.242568888058086</v>
       </c>
       <c r="I32">
-        <v>73.7011873462553</v>
+        <v>16.37804163250118</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1310,25 +1310,25 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>23.3945453840994</v>
+        <v>5.198787863133197</v>
       </c>
       <c r="C33">
-        <v>1.827755291093125</v>
+        <v>0.4061678424651389</v>
       </c>
       <c r="D33">
-        <v>8.603858515974228</v>
+        <v>1.911968559105385</v>
       </c>
       <c r="E33">
-        <v>13.2768515792544</v>
+        <v>2.950411462056533</v>
       </c>
       <c r="F33">
-        <v>2.598295945999828</v>
+        <v>0.577399099111073</v>
       </c>
       <c r="G33">
-        <v>6.253525712683452</v>
+        <v>1.389672380596322</v>
       </c>
       <c r="I33">
-        <v>55.95483242910444</v>
+        <v>12.43440720646765</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1336,25 +1336,25 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>18.4345710977179</v>
+        <v>4.09657135504842</v>
       </c>
       <c r="C34">
-        <v>1.028112351239883</v>
+        <v>0.2284694113866406</v>
       </c>
       <c r="D34">
-        <v>5.23713127059301</v>
+        <v>1.163806949020669</v>
       </c>
       <c r="E34">
-        <v>11.00081987995365</v>
+        <v>2.444626639989699</v>
       </c>
       <c r="F34">
-        <v>1.351113891919911</v>
+        <v>0.3002475315377579</v>
       </c>
       <c r="G34">
-        <v>5.836623998504554</v>
+        <v>1.297027555223235</v>
       </c>
       <c r="I34">
-        <v>42.8883724899289</v>
+        <v>9.530749442206421</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1362,25 +1362,25 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>12.11060388258149</v>
+        <v>2.691245307240332</v>
       </c>
       <c r="C35">
-        <v>0.7996429398532422</v>
+        <v>0.1776984310784983</v>
       </c>
       <c r="D35">
-        <v>2.618565635296505</v>
+        <v>0.5819034745103343</v>
       </c>
       <c r="E35">
-        <v>7.586772331002512</v>
+        <v>1.685949406889448</v>
       </c>
       <c r="F35">
-        <v>2.182568594639855</v>
+        <v>0.4850152432533013</v>
       </c>
       <c r="G35">
-        <v>8.754935997756828</v>
+        <v>1.945541332834851</v>
       </c>
       <c r="I35">
-        <v>34.05308938113043</v>
+        <v>7.567353195806765</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1388,28 +1388,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>8.679955001167619</v>
+        <v>1.92887888914836</v>
       </c>
       <c r="C36">
-        <v>0.4569388227732812</v>
+        <v>0.1015419606162847</v>
       </c>
       <c r="D36">
-        <v>2.244484830254147</v>
+        <v>0.4987744067231438</v>
       </c>
       <c r="E36">
-        <v>3.034708932401005</v>
+        <v>0.6743797627557792</v>
       </c>
       <c r="F36">
-        <v>1.558977567599897</v>
+        <v>0.3464394594666437</v>
       </c>
       <c r="G36">
-        <v>4.585918855967866</v>
+        <v>1.01909307910397</v>
       </c>
       <c r="H36">
-        <v>0.2039303889588422</v>
+        <v>0.04531786421307603</v>
       </c>
       <c r="I36">
-        <v>20.76491439912266</v>
+        <v>4.614425422027257</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1417,22 +1417,22 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>5.249306119753752</v>
+        <v>1.166512471056388</v>
       </c>
       <c r="C37">
-        <v>0.3427041170799609</v>
+        <v>0.07615647046221352</v>
       </c>
       <c r="E37">
-        <v>0.3793386165501257</v>
+        <v>0.08429747034447239</v>
       </c>
       <c r="F37">
-        <v>1.558977567599897</v>
+        <v>0.3464394594666437</v>
       </c>
       <c r="G37">
-        <v>5.002820570146761</v>
+        <v>1.111737904477058</v>
       </c>
       <c r="I37">
-        <v>12.5331469911305</v>
+        <v>2.785143775806776</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1440,25 +1440,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>3.719980714786119</v>
+        <v>0.8266623810635823</v>
       </c>
       <c r="C38">
-        <v>0.6854082341599218</v>
+        <v>0.152312940924427</v>
       </c>
       <c r="D38">
-        <v>1.122242415127074</v>
+        <v>0.2493872033615719</v>
       </c>
       <c r="E38">
-        <v>0.3793386165501257</v>
+        <v>0.08429747034447239</v>
       </c>
       <c r="F38">
-        <v>1.66290940543989</v>
+        <v>0.3695354234310867</v>
       </c>
       <c r="G38">
-        <v>1.667606856715587</v>
+        <v>0.3705793014923527</v>
       </c>
       <c r="I38">
-        <v>9.237486242778717</v>
+        <v>2.052774720617493</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1466,22 +1466,22 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>2.562653381297106</v>
+        <v>0.5694785291771345</v>
       </c>
       <c r="C39">
-        <v>0.2284694113866406</v>
+        <v>0.05077098030814236</v>
       </c>
       <c r="D39">
-        <v>1.870404025211789</v>
+        <v>0.4156453389359533</v>
       </c>
       <c r="F39">
-        <v>0.2078636756799862</v>
+        <v>0.04619192792888584</v>
       </c>
       <c r="G39">
-        <v>4.169017141788967</v>
+        <v>0.926448253730882</v>
       </c>
       <c r="I39">
-        <v>9.038407635364489</v>
+        <v>2.008535030080998</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,25 +1489,25 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>2.066655952658956</v>
+        <v>0.4592568783686573</v>
       </c>
       <c r="C40">
-        <v>0.4569388227732812</v>
+        <v>0.1015419606162847</v>
       </c>
       <c r="D40">
-        <v>0.3740808050423579</v>
+        <v>0.08312906778719063</v>
       </c>
       <c r="E40">
-        <v>1.896693082750628</v>
+        <v>0.4214873517223619</v>
       </c>
       <c r="F40">
-        <v>0.9353865405599382</v>
+        <v>0.2078636756799862</v>
       </c>
       <c r="G40">
-        <v>2.084508570894484</v>
+        <v>0.463224126865441</v>
       </c>
       <c r="I40">
-        <v>7.814263774679645</v>
+        <v>1.736503061039922</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1515,25 +1515,25 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>5.455971715019643</v>
+        <v>1.212438158893254</v>
       </c>
       <c r="C41">
-        <v>0.4569388227732812</v>
+        <v>0.1015419606162847</v>
       </c>
       <c r="D41">
-        <v>1.496323220169431</v>
+        <v>0.3325162711487625</v>
       </c>
       <c r="E41">
-        <v>1.138015849650378</v>
+        <v>0.2528924110334171</v>
       </c>
       <c r="F41">
-        <v>1.351113891919911</v>
+        <v>0.3002475315377579</v>
       </c>
       <c r="G41">
-        <v>1.667606856715587</v>
+        <v>0.3705793014923527</v>
       </c>
       <c r="I41">
-        <v>11.56597035624823</v>
+        <v>2.570215634721829</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1541,25 +1541,25 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>14.54925790671906</v>
+        <v>3.233168423715344</v>
       </c>
       <c r="C42">
-        <v>0.1142347056933203</v>
+        <v>0.02538549015407118</v>
       </c>
       <c r="D42">
-        <v>6.733454490762441</v>
+        <v>1.496323220169431</v>
       </c>
       <c r="E42">
-        <v>4.172724782051384</v>
+        <v>0.9272721737891965</v>
       </c>
       <c r="F42">
-        <v>4.365137189279711</v>
+        <v>0.9700304865066025</v>
       </c>
       <c r="G42">
-        <v>6.253525712683452</v>
+        <v>1.389672380596322</v>
       </c>
       <c r="I42">
-        <v>36.18833478718936</v>
+        <v>8.041852174930968</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1567,25 +1567,25 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>23.89054281273754</v>
+        <v>5.309009513941675</v>
       </c>
       <c r="C43">
-        <v>0.6854082341599218</v>
+        <v>0.152312940924427</v>
       </c>
       <c r="D43">
-        <v>7.855696905889514</v>
+        <v>1.745710423531003</v>
       </c>
       <c r="E43">
-        <v>14.41486742890478</v>
+        <v>3.20330387308995</v>
       </c>
       <c r="F43">
-        <v>9.042069892079404</v>
+        <v>2.009348864906534</v>
       </c>
       <c r="G43">
-        <v>11.67324799700911</v>
+        <v>2.594055110446469</v>
       </c>
       <c r="I43">
-        <v>67.56183327078027</v>
+        <v>15.01374072684006</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,28 +1593,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>33.97582386171324</v>
+        <v>7.550183080380722</v>
       </c>
       <c r="C44">
-        <v>1.142347056933203</v>
+        <v>0.2538549015407118</v>
       </c>
       <c r="D44">
-        <v>6.359373685720086</v>
+        <v>1.41319415238224</v>
       </c>
       <c r="E44">
-        <v>14.41486742890478</v>
+        <v>3.20330387308995</v>
       </c>
       <c r="F44">
-        <v>4.780864540639683</v>
+        <v>1.062414342364374</v>
       </c>
       <c r="G44">
-        <v>8.754935997756828</v>
+        <v>1.945541332834851</v>
       </c>
       <c r="H44">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="I44">
-        <v>69.8360733495855</v>
+        <v>15.519127411019</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1622,28 +1622,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>32.57049781390516</v>
+        <v>7.237888403090034</v>
       </c>
       <c r="C45">
-        <v>3.65551058218625</v>
+        <v>0.8123356849302777</v>
       </c>
       <c r="D45">
-        <v>9.352020126058944</v>
+        <v>2.078226694679766</v>
       </c>
       <c r="E45">
-        <v>8.345449564102768</v>
+        <v>1.854544347578393</v>
       </c>
       <c r="F45">
-        <v>8.00275151367947</v>
+        <v>1.778389225262105</v>
       </c>
       <c r="G45">
-        <v>15.84226513879808</v>
+        <v>3.520503364177351</v>
       </c>
       <c r="H45">
-        <v>1.019651944794211</v>
+        <v>0.2265893210653802</v>
       </c>
       <c r="I45">
-        <v>78.78814668352489</v>
+        <v>17.50847704078331</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1651,28 +1651,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>30.75184057556528</v>
+        <v>6.833742350125617</v>
       </c>
       <c r="C46">
-        <v>2.284694113866406</v>
+        <v>0.5077098030814237</v>
       </c>
       <c r="D46">
-        <v>10.10018173614366</v>
+        <v>2.244484830254147</v>
       </c>
       <c r="E46">
-        <v>12.13883572960402</v>
+        <v>2.697519051023117</v>
       </c>
       <c r="F46">
-        <v>10.6010474596793</v>
+        <v>2.355788324373178</v>
       </c>
       <c r="G46">
-        <v>21.26198742312373</v>
+        <v>4.724886094027497</v>
       </c>
       <c r="H46">
-        <v>0.8157215558353687</v>
+        <v>0.1812714568523041</v>
       </c>
       <c r="I46">
-        <v>87.95430859381777</v>
+        <v>19.54540190973728</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1680,28 +1680,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>23.80787657463119</v>
+        <v>5.290639238806929</v>
       </c>
       <c r="C47">
-        <v>3.65551058218625</v>
+        <v>0.8123356849302777</v>
       </c>
       <c r="D47">
-        <v>7.481616100847157</v>
+        <v>1.662581355743813</v>
       </c>
       <c r="E47">
-        <v>10.2421426468534</v>
+        <v>2.276031699300755</v>
       </c>
       <c r="F47">
-        <v>13.09541156783914</v>
+        <v>2.910091459519808</v>
       </c>
       <c r="G47">
-        <v>22.92959427983932</v>
+        <v>5.095465395519851</v>
       </c>
       <c r="H47">
-        <v>3.058955834382633</v>
+        <v>0.6797679631961407</v>
       </c>
       <c r="I47">
-        <v>84.27110758657908</v>
+        <v>18.72691279701758</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1709,28 +1709,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>26.28786371782193</v>
+        <v>5.841747492849315</v>
       </c>
       <c r="C48">
-        <v>4.340918816346171</v>
+        <v>0.9646486258547048</v>
       </c>
       <c r="D48">
-        <v>12.71874737144017</v>
+        <v>2.826388304764481</v>
       </c>
       <c r="E48">
-        <v>9.104126797203021</v>
+        <v>2.023139288267337</v>
       </c>
       <c r="F48">
-        <v>11.01677481103927</v>
+        <v>2.448172180230949</v>
       </c>
       <c r="G48">
-        <v>17.50987199551366</v>
+        <v>3.891082665669702</v>
       </c>
       <c r="H48">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="I48">
-        <v>81.38616428728191</v>
+        <v>18.08581428606264</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1738,28 +1738,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>27.73452288468319</v>
+        <v>6.163227307707379</v>
       </c>
       <c r="C49">
-        <v>4.455153522039491</v>
+        <v>0.990034116008776</v>
       </c>
       <c r="D49">
-        <v>10.84834334622838</v>
+        <v>2.410742965828528</v>
       </c>
       <c r="E49">
-        <v>8.724788180652892</v>
+        <v>1.938841817922865</v>
       </c>
       <c r="F49">
-        <v>11.01677481103927</v>
+        <v>2.448172180230949</v>
       </c>
       <c r="G49">
-        <v>40.02256456117409</v>
+        <v>8.893903235816465</v>
       </c>
       <c r="H49">
-        <v>0.2039303889588422</v>
+        <v>0.04531786421307603</v>
       </c>
       <c r="I49">
-        <v>103.0060776947761</v>
+        <v>22.89023948772804</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_가을_배출량/경기동로_W_가을_배출량_PM10_재비산.xlsx
+++ b/output/경기동로_W_가을_배출량/경기동로_W_가을_배출량_PM10_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>6.934778863366719</v>
+        <v>31.20650488515025</v>
       </c>
       <c r="C2">
-        <v>0.5838662735436371</v>
+        <v>2.627398230946367</v>
       </c>
       <c r="D2">
-        <v>3.491420847062006</v>
+        <v>15.71139381177903</v>
       </c>
       <c r="E2">
-        <v>2.10743675861181</v>
+        <v>9.483465413753141</v>
       </c>
       <c r="F2">
-        <v>3.141051099164237</v>
+        <v>14.13472994623907</v>
       </c>
       <c r="G2">
-        <v>7.504230855220144</v>
+        <v>33.76903884849064</v>
       </c>
       <c r="H2">
-        <v>0.3625429137046082</v>
+        <v>1.631443111670737</v>
       </c>
       <c r="I2">
-        <v>24.12532761067316</v>
+        <v>108.5639742480292</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>7.127666752281557</v>
+        <v>32.07450038526702</v>
       </c>
       <c r="C3">
-        <v>0.7361792144680642</v>
+        <v>3.312806465106289</v>
       </c>
       <c r="D3">
-        <v>2.6601301691901</v>
+        <v>11.97058576135545</v>
       </c>
       <c r="E3">
-        <v>1.601651936544975</v>
+        <v>7.207433714452388</v>
       </c>
       <c r="F3">
-        <v>3.025571279342022</v>
+        <v>13.6150707570391</v>
       </c>
       <c r="G3">
-        <v>6.299848125369997</v>
+        <v>28.34931656416498</v>
       </c>
       <c r="H3">
-        <v>0.2265893210653802</v>
+        <v>1.019651944794211</v>
       </c>
       <c r="I3">
-        <v>21.6776367982621</v>
+        <v>97.54936559217943</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>7.2838140909269</v>
+        <v>32.77716340917106</v>
       </c>
       <c r="C4">
-        <v>0.8123356849302777</v>
+        <v>3.65551058218625</v>
       </c>
       <c r="D4">
-        <v>1.911968559105385</v>
+        <v>8.603858515974228</v>
       </c>
       <c r="E4">
-        <v>2.191734228956281</v>
+        <v>9.862804030303268</v>
       </c>
       <c r="F4">
-        <v>2.863899531590922</v>
+        <v>12.88754789215915</v>
       </c>
       <c r="G4">
-        <v>3.149924062684998</v>
+        <v>14.17465828208249</v>
       </c>
       <c r="H4">
-        <v>0.2265893210653802</v>
+        <v>1.019651944794211</v>
       </c>
       <c r="I4">
-        <v>18.44026547926014</v>
+        <v>82.98119465667065</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>7.908403445508276</v>
+        <v>35.58781550478724</v>
       </c>
       <c r="C5">
-        <v>0.7361792144680642</v>
+        <v>3.312806465106289</v>
       </c>
       <c r="D5">
-        <v>2.992646440338863</v>
+        <v>13.46690898152488</v>
       </c>
       <c r="E5">
-        <v>2.613221580678643</v>
+        <v>11.7594971130539</v>
       </c>
       <c r="F5">
-        <v>2.124828684728749</v>
+        <v>9.561729081279367</v>
       </c>
       <c r="G5">
-        <v>2.03818615820794</v>
+        <v>9.171837711935732</v>
       </c>
       <c r="H5">
-        <v>0.3625429137046082</v>
+        <v>1.631443111670737</v>
       </c>
       <c r="I5">
-        <v>18.77600843763514</v>
+        <v>84.49203796935815</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>9.488247107096454</v>
+        <v>42.69711198193404</v>
       </c>
       <c r="C6">
-        <v>0.837721175084349</v>
+        <v>3.76974528787957</v>
       </c>
       <c r="D6">
-        <v>2.743259236977292</v>
+        <v>12.34466656639781</v>
       </c>
       <c r="E6">
-        <v>1.854544347578393</v>
+        <v>8.345449564102768</v>
       </c>
       <c r="F6">
-        <v>1.686005369404334</v>
+        <v>7.587024162319497</v>
       </c>
       <c r="G6">
-        <v>1.204382729850146</v>
+        <v>5.419722284325657</v>
       </c>
       <c r="H6">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I6">
-        <v>17.90479569441712</v>
+        <v>80.57158062487703</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>8.229883260366336</v>
+        <v>37.0344746716485</v>
       </c>
       <c r="C7">
-        <v>0.1776984310784983</v>
+        <v>0.7996429398532422</v>
       </c>
       <c r="D7">
-        <v>2.6601301691901</v>
+        <v>11.97058576135545</v>
       </c>
       <c r="E7">
-        <v>2.950411462056533</v>
+        <v>13.2768515792544</v>
       </c>
       <c r="F7">
-        <v>0.9700304865066025</v>
+        <v>4.365137189279711</v>
       </c>
       <c r="G7">
-        <v>0.926448253730882</v>
+        <v>4.169017141788967</v>
       </c>
       <c r="H7">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I7">
-        <v>16.0052377913551</v>
+        <v>72.02357006109797</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>6.567373360671793</v>
+        <v>29.55318012302306</v>
       </c>
       <c r="C8">
-        <v>0.6600227440058506</v>
+        <v>2.970102348026328</v>
       </c>
       <c r="D8">
-        <v>1.41319415238224</v>
+        <v>6.359373685720086</v>
       </c>
       <c r="E8">
-        <v>2.444626639989699</v>
+        <v>11.00081987995365</v>
       </c>
       <c r="F8">
-        <v>1.10860627029326</v>
+        <v>4.98872821631967</v>
       </c>
       <c r="G8">
-        <v>1.111737904477058</v>
+        <v>5.002820570146761</v>
       </c>
       <c r="H8">
-        <v>0.1812714568523041</v>
+        <v>0.8157215558353687</v>
       </c>
       <c r="I8">
-        <v>13.48683252867221</v>
+        <v>60.69074637902492</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>5.768266392310331</v>
+        <v>25.95719876539649</v>
       </c>
       <c r="C9">
-        <v>1.015419606162847</v>
+        <v>4.569388227732811</v>
       </c>
       <c r="D9">
-        <v>1.662581355743813</v>
+        <v>7.481616100847157</v>
       </c>
       <c r="E9">
-        <v>3.709088695156786</v>
+        <v>16.69089912820554</v>
       </c>
       <c r="F9">
-        <v>0.6697829549688448</v>
+        <v>3.014023297359801</v>
       </c>
       <c r="G9">
-        <v>1.574962031342499</v>
+        <v>7.087329141041244</v>
       </c>
       <c r="H9">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I9">
-        <v>14.49073676411127</v>
+        <v>65.20831543850072</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>5.079381074757349</v>
+        <v>22.85721483640805</v>
       </c>
       <c r="C10">
-        <v>0.4315533326192101</v>
+        <v>1.941989996786445</v>
       </c>
       <c r="D10">
-        <v>1.246936016807859</v>
+        <v>5.611212075635371</v>
       </c>
       <c r="E10">
-        <v>2.276031699300755</v>
+        <v>10.2421426468534</v>
       </c>
       <c r="F10">
-        <v>0.6466869910044017</v>
+        <v>2.910091459519808</v>
       </c>
       <c r="G10">
-        <v>0.8338034283577934</v>
+        <v>3.752115427610072</v>
       </c>
       <c r="H10">
-        <v>0.2719071852784563</v>
+        <v>1.223582333753053</v>
       </c>
       <c r="I10">
-        <v>10.78629972812582</v>
+        <v>48.53834877656619</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>2.86576292102042</v>
+        <v>12.89593314459189</v>
       </c>
       <c r="C11">
-        <v>0.2030839212325694</v>
+        <v>0.9138776455465625</v>
       </c>
       <c r="D11">
-        <v>0.4156453389359533</v>
+        <v>1.870404025211789</v>
       </c>
       <c r="E11">
-        <v>1.517354466200503</v>
+        <v>6.828095097902262</v>
       </c>
       <c r="F11">
-        <v>0.577399099111073</v>
+        <v>2.598295945999828</v>
       </c>
       <c r="G11">
-        <v>0.463224126865441</v>
+        <v>2.084508570894484</v>
       </c>
       <c r="H11">
-        <v>0.2265893210653802</v>
+        <v>1.019651944794211</v>
       </c>
       <c r="I11">
-        <v>6.269059194431339</v>
+        <v>28.21076637494103</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>1.965619439417853</v>
+        <v>8.845287477380332</v>
       </c>
       <c r="C12">
-        <v>0.2030839212325694</v>
+        <v>0.9138776455465625</v>
       </c>
       <c r="D12">
-        <v>0.3325162711487625</v>
+        <v>1.496323220169431</v>
       </c>
       <c r="E12">
-        <v>0.5900822924113066</v>
+        <v>2.65537031585088</v>
       </c>
       <c r="F12">
-        <v>0.2771515675733149</v>
+        <v>1.247182054079917</v>
       </c>
       <c r="G12">
-        <v>0.3705793014923527</v>
+        <v>1.667606856715587</v>
       </c>
       <c r="H12">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I12">
-        <v>3.829668521702311</v>
+        <v>17.23350834766039</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>1.212438158893254</v>
+        <v>5.455971715019643</v>
       </c>
       <c r="C13">
-        <v>0.1776984310784983</v>
+        <v>0.7996429398532422</v>
       </c>
       <c r="D13">
-        <v>0.08312906778719063</v>
+        <v>0.3740808050423579</v>
       </c>
       <c r="F13">
-        <v>0.2540556036088721</v>
+        <v>1.143250216239925</v>
       </c>
       <c r="G13">
-        <v>0.2779344761192645</v>
+        <v>1.25070514253669</v>
       </c>
       <c r="H13">
-        <v>0.04531786421307603</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="I13">
-        <v>2.050573601700156</v>
+        <v>9.227581207650701</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>0.9828097197089263</v>
+        <v>4.422643738690166</v>
       </c>
       <c r="C14">
-        <v>0.2284694113866406</v>
+        <v>1.028112351239883</v>
       </c>
       <c r="D14">
-        <v>0.4156453389359533</v>
+        <v>1.870404025211789</v>
       </c>
       <c r="F14">
-        <v>0.3233434955022009</v>
+        <v>1.455045729759904</v>
       </c>
       <c r="G14">
-        <v>0.2779344761192645</v>
+        <v>1.25070514253669</v>
       </c>
       <c r="H14">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I14">
-        <v>2.318838170079138</v>
+        <v>10.43477176535612</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,22 +809,22 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.7348110053898514</v>
+        <v>3.306649524254329</v>
       </c>
       <c r="C15">
-        <v>0.1269274507703559</v>
+        <v>0.5711735284666014</v>
       </c>
       <c r="D15">
-        <v>0.1662581355743813</v>
+        <v>0.7481616100847157</v>
       </c>
       <c r="F15">
-        <v>0.2078636756799862</v>
+        <v>0.9353865405599382</v>
       </c>
       <c r="G15">
-        <v>0.5558689522385291</v>
+        <v>2.50141028507338</v>
       </c>
       <c r="I15">
-        <v>1.791729219653104</v>
+        <v>8.062781488438965</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,25 +832,25 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.633774492148747</v>
+        <v>2.851985214669359</v>
       </c>
       <c r="C16">
-        <v>0.1269274507703559</v>
+        <v>0.5711735284666014</v>
       </c>
       <c r="D16">
-        <v>0.1662581355743813</v>
+        <v>0.7481616100847157</v>
       </c>
       <c r="E16">
-        <v>0.4214873517223619</v>
+        <v>1.896693082750628</v>
       </c>
       <c r="F16">
-        <v>0.1847677117155433</v>
+        <v>0.8314547027199449</v>
       </c>
       <c r="G16">
-        <v>0.463224126865441</v>
+        <v>2.084508570894484</v>
       </c>
       <c r="I16">
-        <v>1.996439268796831</v>
+        <v>8.983976709585733</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -858,25 +858,25 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>1.212438158893254</v>
+        <v>5.455971715019643</v>
       </c>
       <c r="C17">
-        <v>0.152312940924427</v>
+        <v>0.6854082341599218</v>
       </c>
       <c r="D17">
-        <v>0.6650325422975251</v>
+        <v>2.992646440338863</v>
       </c>
       <c r="E17">
-        <v>0.08429747034447239</v>
+        <v>0.3793386165501257</v>
       </c>
       <c r="F17">
-        <v>0.3695354234310867</v>
+        <v>1.66290940543989</v>
       </c>
       <c r="G17">
-        <v>0.463224126865441</v>
+        <v>2.084508570894484</v>
       </c>
       <c r="I17">
-        <v>2.946840662756207</v>
+        <v>13.26078298240293</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -884,28 +884,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>4.041460529644182</v>
+        <v>18.18657238339883</v>
       </c>
       <c r="C18">
-        <v>0.2284694113866406</v>
+        <v>1.028112351239883</v>
       </c>
       <c r="D18">
-        <v>1.911968559105385</v>
+        <v>8.603858515974228</v>
       </c>
       <c r="E18">
-        <v>0.6743797627557792</v>
+        <v>3.034708932401005</v>
       </c>
       <c r="F18">
-        <v>1.131702234257703</v>
+        <v>5.092660054159663</v>
       </c>
       <c r="G18">
-        <v>1.760251682088676</v>
+        <v>7.921132569399039</v>
       </c>
       <c r="H18">
-        <v>0.04531786421307603</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="I18">
-        <v>9.79355004345144</v>
+        <v>44.0709751955315</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -913,28 +913,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>6.411226022026455</v>
+        <v>28.85051709911903</v>
       </c>
       <c r="C19">
-        <v>0.1776984310784983</v>
+        <v>0.7996429398532422</v>
       </c>
       <c r="D19">
-        <v>2.161355762466957</v>
+        <v>9.726100931101303</v>
       </c>
       <c r="E19">
-        <v>3.624791224812312</v>
+        <v>16.31156051165541</v>
       </c>
       <c r="F19">
-        <v>1.916965009048762</v>
+        <v>8.626342540719429</v>
       </c>
       <c r="G19">
-        <v>2.686699935819557</v>
+        <v>12.090149711188</v>
       </c>
       <c r="H19">
-        <v>0.1359535926392281</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="I19">
-        <v>17.11468997789177</v>
+        <v>77.01610490051294</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -942,25 +942,25 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>7.788996657132425</v>
+        <v>35.0504849570959</v>
       </c>
       <c r="C20">
-        <v>0.4315533326192101</v>
+        <v>1.941989996786445</v>
       </c>
       <c r="D20">
-        <v>1.745710423531003</v>
+        <v>7.855696905889514</v>
       </c>
       <c r="E20">
-        <v>3.20330387308995</v>
+        <v>14.41486742890478</v>
       </c>
       <c r="F20">
-        <v>1.50123765768879</v>
+        <v>6.755569459599553</v>
       </c>
       <c r="G20">
-        <v>2.03818615820794</v>
+        <v>9.171837711935732</v>
       </c>
       <c r="I20">
-        <v>16.70898810226932</v>
+        <v>75.19044646021193</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -968,28 +968,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>8.395215736579051</v>
+        <v>37.77847081460573</v>
       </c>
       <c r="C21">
-        <v>0.5838662735436371</v>
+        <v>2.627398230946367</v>
       </c>
       <c r="D21">
-        <v>2.826388304764481</v>
+        <v>12.71874737144017</v>
       </c>
       <c r="E21">
-        <v>2.613221580678643</v>
+        <v>11.7594971130539</v>
       </c>
       <c r="F21">
-        <v>1.801485189226548</v>
+        <v>8.106683351519463</v>
       </c>
       <c r="G21">
-        <v>2.50141028507338</v>
+        <v>11.25634628283021</v>
       </c>
       <c r="H21">
-        <v>0.4078607779176843</v>
+        <v>1.835373500629579</v>
       </c>
       <c r="I21">
-        <v>19.12944814778342</v>
+        <v>86.08251666502542</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -997,28 +997,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>7.39403574173538</v>
+        <v>33.27316083780921</v>
       </c>
       <c r="C22">
-        <v>0.8123356849302777</v>
+        <v>3.65551058218625</v>
       </c>
       <c r="D22">
-        <v>3.657678982636388</v>
+        <v>16.45955542186375</v>
       </c>
       <c r="E22">
-        <v>2.191734228956281</v>
+        <v>9.862804030303268</v>
       </c>
       <c r="F22">
-        <v>2.956283387448694</v>
+        <v>13.30327524351912</v>
       </c>
       <c r="G22">
-        <v>5.651334347758377</v>
+        <v>25.4310045649127</v>
       </c>
       <c r="H22">
-        <v>0.1812714568523041</v>
+        <v>0.8157215558353687</v>
       </c>
       <c r="I22">
-        <v>22.84467383031771</v>
+        <v>102.8010322364297</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1026,28 +1026,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>6.172412445274749</v>
+        <v>27.77585600373636</v>
       </c>
       <c r="C23">
-        <v>0.7361792144680642</v>
+        <v>3.312806465106289</v>
       </c>
       <c r="D23">
-        <v>1.745710423531003</v>
+        <v>7.855696905889514</v>
       </c>
       <c r="E23">
-        <v>1.938841817922865</v>
+        <v>8.724788180652892</v>
       </c>
       <c r="F23">
-        <v>3.117955135199794</v>
+        <v>14.03079810839907</v>
       </c>
       <c r="G23">
-        <v>7.226296379100877</v>
+        <v>32.51833370595395</v>
       </c>
       <c r="H23">
-        <v>0.3625429137046082</v>
+        <v>1.631443111670737</v>
       </c>
       <c r="I23">
-        <v>21.29993832920196</v>
+        <v>95.84972248140882</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1055,28 +1055,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>5.740710979608215</v>
+        <v>25.83319940823696</v>
       </c>
       <c r="C24">
-        <v>0.7361792144680642</v>
+        <v>3.312806465106289</v>
       </c>
       <c r="D24">
-        <v>1.995097626892575</v>
+        <v>8.977939321016589</v>
       </c>
       <c r="E24">
-        <v>1.854544347578393</v>
+        <v>8.345449564102768</v>
       </c>
       <c r="F24">
-        <v>2.979379351413137</v>
+        <v>13.40720708135911</v>
       </c>
       <c r="G24">
-        <v>8.615968759697198</v>
+        <v>38.7718594186374</v>
       </c>
       <c r="H24">
-        <v>0.2265893210653802</v>
+        <v>1.019651944794211</v>
       </c>
       <c r="I24">
-        <v>22.14846960072296</v>
+        <v>99.66811320325331</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1084,28 +1084,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>6.163227307707379</v>
+        <v>27.73452288468319</v>
       </c>
       <c r="C25">
-        <v>0.990034116008776</v>
+        <v>4.455153522039491</v>
       </c>
       <c r="D25">
-        <v>2.410742965828528</v>
+        <v>10.84834334622838</v>
       </c>
       <c r="E25">
-        <v>1.938841817922865</v>
+        <v>8.724788180652892</v>
       </c>
       <c r="F25">
-        <v>2.448172180230949</v>
+        <v>11.01677481103927</v>
       </c>
       <c r="G25">
-        <v>8.893903235816465</v>
+        <v>40.02256456117409</v>
       </c>
       <c r="H25">
-        <v>0.04531786421307603</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="I25">
-        <v>22.89023948772804</v>
+        <v>103.0060776947761</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1113,28 +1113,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>6.861297762827734</v>
+        <v>30.87583993272481</v>
       </c>
       <c r="C26">
-        <v>1.193118037241345</v>
+        <v>5.369031167586055</v>
       </c>
       <c r="D26">
-        <v>3.158904575913243</v>
+        <v>14.2150705916096</v>
       </c>
       <c r="E26">
-        <v>1.77024687723392</v>
+        <v>7.96611094755264</v>
       </c>
       <c r="F26">
-        <v>2.863899531590922</v>
+        <v>12.88754789215915</v>
       </c>
       <c r="G26">
-        <v>8.245389458204844</v>
+        <v>37.10425256192182</v>
       </c>
       <c r="H26">
-        <v>0.1812714568523041</v>
+        <v>0.8157215558353687</v>
       </c>
       <c r="I26">
-        <v>24.27412769986431</v>
+        <v>109.2335746493894</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1142,28 +1142,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>6.778631524721376</v>
+        <v>30.5038418612462</v>
       </c>
       <c r="C27">
-        <v>1.091576076625061</v>
+        <v>4.912092344812774</v>
       </c>
       <c r="D27">
-        <v>2.909517372551673</v>
+        <v>13.09282817648253</v>
       </c>
       <c r="E27">
-        <v>1.601651936544975</v>
+        <v>7.207433714452388</v>
       </c>
       <c r="F27">
-        <v>2.886995495555365</v>
+        <v>12.99147972999914</v>
       </c>
       <c r="G27">
-        <v>5.651334347758377</v>
+        <v>25.4310045649127</v>
       </c>
       <c r="H27">
-        <v>0.7704036916222926</v>
+        <v>3.466816612300316</v>
       </c>
       <c r="I27">
-        <v>21.69011044537912</v>
+        <v>97.60549700420606</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1171,28 +1171,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>7.072555926877318</v>
+        <v>31.82650167094792</v>
       </c>
       <c r="C28">
-        <v>1.066190586470989</v>
+        <v>4.797857639119453</v>
       </c>
       <c r="D28">
-        <v>3.158904575913243</v>
+        <v>14.2150705916096</v>
       </c>
       <c r="E28">
-        <v>2.023139288267337</v>
+        <v>9.104126797203021</v>
       </c>
       <c r="F28">
-        <v>2.794611639697593</v>
+        <v>12.57575237863917</v>
       </c>
       <c r="G28">
-        <v>6.948361902981611</v>
+        <v>31.26762856341726</v>
       </c>
       <c r="H28">
-        <v>0.3172250494915323</v>
+        <v>1.427512722711895</v>
       </c>
       <c r="I28">
-        <v>23.38098896969963</v>
+        <v>105.2144503636483</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1200,28 +1200,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>6.613299048508658</v>
+        <v>29.75984571828895</v>
       </c>
       <c r="C29">
-        <v>0.9138776455465625</v>
+        <v>4.112449404959531</v>
       </c>
       <c r="D29">
-        <v>2.826388304764481</v>
+        <v>12.71874737144017</v>
       </c>
       <c r="E29">
-        <v>2.276031699300755</v>
+        <v>10.2421426468534</v>
       </c>
       <c r="F29">
-        <v>1.916965009048762</v>
+        <v>8.626342540719429</v>
       </c>
       <c r="G29">
-        <v>5.651334347758377</v>
+        <v>25.4310045649127</v>
       </c>
       <c r="H29">
-        <v>0.2265893210653802</v>
+        <v>1.019651944794211</v>
       </c>
       <c r="I29">
-        <v>20.42448537599298</v>
+        <v>91.91018419196838</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1229,28 +1229,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>7.522627667678602</v>
+        <v>33.85182450455372</v>
       </c>
       <c r="C30">
-        <v>0.4061678424651389</v>
+        <v>1.827755291093125</v>
       </c>
       <c r="D30">
-        <v>3.242033643700435</v>
+        <v>14.58915139665196</v>
       </c>
       <c r="E30">
-        <v>1.601651936544975</v>
+        <v>7.207433714452388</v>
       </c>
       <c r="F30">
-        <v>1.847677117155434</v>
+        <v>8.314547027199449</v>
       </c>
       <c r="G30">
-        <v>5.373399871639114</v>
+        <v>24.18029942237601</v>
       </c>
       <c r="H30">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I30">
-        <v>20.08419380760985</v>
+        <v>90.37887213424433</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1258,25 +1258,25 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>7.329739778763768</v>
+        <v>32.98382900443696</v>
       </c>
       <c r="C31">
-        <v>0.05077098030814236</v>
+        <v>0.2284694113866406</v>
       </c>
       <c r="D31">
-        <v>1.41319415238224</v>
+        <v>6.359373685720086</v>
       </c>
       <c r="E31">
-        <v>3.034708932401005</v>
+        <v>13.65619019580452</v>
       </c>
       <c r="F31">
-        <v>0.9700304865066025</v>
+        <v>4.365137189279711</v>
       </c>
       <c r="G31">
-        <v>4.169017141788967</v>
+        <v>18.76057713805035</v>
       </c>
       <c r="I31">
-        <v>16.96746147215072</v>
+        <v>76.35357662467827</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1284,25 +1284,25 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>6.521447672834929</v>
+        <v>29.34651452775718</v>
       </c>
       <c r="C32">
-        <v>0.2284694113866406</v>
+        <v>1.028112351239883</v>
       </c>
       <c r="D32">
-        <v>1.828839491318194</v>
+        <v>8.229777710931875</v>
       </c>
       <c r="E32">
-        <v>3.54049375446784</v>
+        <v>15.93222189510528</v>
       </c>
       <c r="F32">
-        <v>1.016222414435489</v>
+        <v>4.573000864959698</v>
       </c>
       <c r="G32">
-        <v>3.242568888058086</v>
+        <v>14.59155999626138</v>
       </c>
       <c r="I32">
-        <v>16.37804163250118</v>
+        <v>73.7011873462553</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1310,25 +1310,25 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>5.198787863133197</v>
+        <v>23.3945453840994</v>
       </c>
       <c r="C33">
-        <v>0.4061678424651389</v>
+        <v>1.827755291093125</v>
       </c>
       <c r="D33">
-        <v>1.911968559105385</v>
+        <v>8.603858515974228</v>
       </c>
       <c r="E33">
-        <v>2.950411462056533</v>
+        <v>13.2768515792544</v>
       </c>
       <c r="F33">
-        <v>0.577399099111073</v>
+        <v>2.598295945999828</v>
       </c>
       <c r="G33">
-        <v>1.389672380596322</v>
+        <v>6.253525712683452</v>
       </c>
       <c r="I33">
-        <v>12.43440720646765</v>
+        <v>55.95483242910444</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1336,25 +1336,25 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>4.09657135504842</v>
+        <v>18.4345710977179</v>
       </c>
       <c r="C34">
-        <v>0.2284694113866406</v>
+        <v>1.028112351239883</v>
       </c>
       <c r="D34">
-        <v>1.163806949020669</v>
+        <v>5.23713127059301</v>
       </c>
       <c r="E34">
-        <v>2.444626639989699</v>
+        <v>11.00081987995365</v>
       </c>
       <c r="F34">
-        <v>0.3002475315377579</v>
+        <v>1.351113891919911</v>
       </c>
       <c r="G34">
-        <v>1.297027555223235</v>
+        <v>5.836623998504554</v>
       </c>
       <c r="I34">
-        <v>9.530749442206421</v>
+        <v>42.8883724899289</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1362,25 +1362,25 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>2.691245307240332</v>
+        <v>12.11060388258149</v>
       </c>
       <c r="C35">
-        <v>0.1776984310784983</v>
+        <v>0.7996429398532422</v>
       </c>
       <c r="D35">
-        <v>0.5819034745103343</v>
+        <v>2.618565635296505</v>
       </c>
       <c r="E35">
-        <v>1.685949406889448</v>
+        <v>7.586772331002512</v>
       </c>
       <c r="F35">
-        <v>0.4850152432533013</v>
+        <v>2.182568594639855</v>
       </c>
       <c r="G35">
-        <v>1.945541332834851</v>
+        <v>8.754935997756828</v>
       </c>
       <c r="I35">
-        <v>7.567353195806765</v>
+        <v>34.05308938113043</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1388,28 +1388,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>1.92887888914836</v>
+        <v>8.679955001167619</v>
       </c>
       <c r="C36">
-        <v>0.1015419606162847</v>
+        <v>0.4569388227732812</v>
       </c>
       <c r="D36">
-        <v>0.4987744067231438</v>
+        <v>2.244484830254147</v>
       </c>
       <c r="E36">
-        <v>0.6743797627557792</v>
+        <v>3.034708932401005</v>
       </c>
       <c r="F36">
-        <v>0.3464394594666437</v>
+        <v>1.558977567599897</v>
       </c>
       <c r="G36">
-        <v>1.01909307910397</v>
+        <v>4.585918855967866</v>
       </c>
       <c r="H36">
-        <v>0.04531786421307603</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="I36">
-        <v>4.614425422027257</v>
+        <v>20.76491439912266</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1417,22 +1417,22 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>1.166512471056388</v>
+        <v>5.249306119753752</v>
       </c>
       <c r="C37">
-        <v>0.07615647046221352</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="E37">
-        <v>0.08429747034447239</v>
+        <v>0.3793386165501257</v>
       </c>
       <c r="F37">
-        <v>0.3464394594666437</v>
+        <v>1.558977567599897</v>
       </c>
       <c r="G37">
-        <v>1.111737904477058</v>
+        <v>5.002820570146761</v>
       </c>
       <c r="I37">
-        <v>2.785143775806776</v>
+        <v>12.5331469911305</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1440,25 +1440,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>0.8266623810635823</v>
+        <v>3.719980714786119</v>
       </c>
       <c r="C38">
-        <v>0.152312940924427</v>
+        <v>0.6854082341599218</v>
       </c>
       <c r="D38">
-        <v>0.2493872033615719</v>
+        <v>1.122242415127074</v>
       </c>
       <c r="E38">
-        <v>0.08429747034447239</v>
+        <v>0.3793386165501257</v>
       </c>
       <c r="F38">
-        <v>0.3695354234310867</v>
+        <v>1.66290940543989</v>
       </c>
       <c r="G38">
-        <v>0.3705793014923527</v>
+        <v>1.667606856715587</v>
       </c>
       <c r="I38">
-        <v>2.052774720617493</v>
+        <v>9.237486242778717</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1466,22 +1466,22 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.5694785291771345</v>
+        <v>2.562653381297106</v>
       </c>
       <c r="C39">
-        <v>0.05077098030814236</v>
+        <v>0.2284694113866406</v>
       </c>
       <c r="D39">
-        <v>0.4156453389359533</v>
+        <v>1.870404025211789</v>
       </c>
       <c r="F39">
-        <v>0.04619192792888584</v>
+        <v>0.2078636756799862</v>
       </c>
       <c r="G39">
-        <v>0.926448253730882</v>
+        <v>4.169017141788967</v>
       </c>
       <c r="I39">
-        <v>2.008535030080998</v>
+        <v>9.038407635364489</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,25 +1489,25 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.4592568783686573</v>
+        <v>2.066655952658956</v>
       </c>
       <c r="C40">
-        <v>0.1015419606162847</v>
+        <v>0.4569388227732812</v>
       </c>
       <c r="D40">
-        <v>0.08312906778719063</v>
+        <v>0.3740808050423579</v>
       </c>
       <c r="E40">
-        <v>0.4214873517223619</v>
+        <v>1.896693082750628</v>
       </c>
       <c r="F40">
-        <v>0.2078636756799862</v>
+        <v>0.9353865405599382</v>
       </c>
       <c r="G40">
-        <v>0.463224126865441</v>
+        <v>2.084508570894484</v>
       </c>
       <c r="I40">
-        <v>1.736503061039922</v>
+        <v>7.814263774679645</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1515,25 +1515,25 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>1.212438158893254</v>
+        <v>5.455971715019643</v>
       </c>
       <c r="C41">
-        <v>0.1015419606162847</v>
+        <v>0.4569388227732812</v>
       </c>
       <c r="D41">
-        <v>0.3325162711487625</v>
+        <v>1.496323220169431</v>
       </c>
       <c r="E41">
-        <v>0.2528924110334171</v>
+        <v>1.138015849650378</v>
       </c>
       <c r="F41">
-        <v>0.3002475315377579</v>
+        <v>1.351113891919911</v>
       </c>
       <c r="G41">
-        <v>0.3705793014923527</v>
+        <v>1.667606856715587</v>
       </c>
       <c r="I41">
-        <v>2.570215634721829</v>
+        <v>11.56597035624823</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1541,25 +1541,25 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>3.233168423715344</v>
+        <v>14.54925790671906</v>
       </c>
       <c r="C42">
-        <v>0.02538549015407118</v>
+        <v>0.1142347056933203</v>
       </c>
       <c r="D42">
-        <v>1.496323220169431</v>
+        <v>6.733454490762441</v>
       </c>
       <c r="E42">
-        <v>0.9272721737891965</v>
+        <v>4.172724782051384</v>
       </c>
       <c r="F42">
-        <v>0.9700304865066025</v>
+        <v>4.365137189279711</v>
       </c>
       <c r="G42">
-        <v>1.389672380596322</v>
+        <v>6.253525712683452</v>
       </c>
       <c r="I42">
-        <v>8.041852174930968</v>
+        <v>36.18833478718936</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1567,25 +1567,25 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>5.309009513941675</v>
+        <v>23.89054281273754</v>
       </c>
       <c r="C43">
-        <v>0.152312940924427</v>
+        <v>0.6854082341599218</v>
       </c>
       <c r="D43">
-        <v>1.745710423531003</v>
+        <v>7.855696905889514</v>
       </c>
       <c r="E43">
-        <v>3.20330387308995</v>
+        <v>14.41486742890478</v>
       </c>
       <c r="F43">
-        <v>2.009348864906534</v>
+        <v>9.042069892079404</v>
       </c>
       <c r="G43">
-        <v>2.594055110446469</v>
+        <v>11.67324799700911</v>
       </c>
       <c r="I43">
-        <v>15.01374072684006</v>
+        <v>67.56183327078027</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,28 +1593,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>7.550183080380722</v>
+        <v>33.97582386171324</v>
       </c>
       <c r="C44">
-        <v>0.2538549015407118</v>
+        <v>1.142347056933203</v>
       </c>
       <c r="D44">
-        <v>1.41319415238224</v>
+        <v>6.359373685720086</v>
       </c>
       <c r="E44">
-        <v>3.20330387308995</v>
+        <v>14.41486742890478</v>
       </c>
       <c r="F44">
-        <v>1.062414342364374</v>
+        <v>4.780864540639683</v>
       </c>
       <c r="G44">
-        <v>1.945541332834851</v>
+        <v>8.754935997756828</v>
       </c>
       <c r="H44">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I44">
-        <v>15.519127411019</v>
+        <v>69.8360733495855</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1622,28 +1622,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>7.237888403090034</v>
+        <v>32.57049781390516</v>
       </c>
       <c r="C45">
-        <v>0.8123356849302777</v>
+        <v>3.65551058218625</v>
       </c>
       <c r="D45">
-        <v>2.078226694679766</v>
+        <v>9.352020126058944</v>
       </c>
       <c r="E45">
-        <v>1.854544347578393</v>
+        <v>8.345449564102768</v>
       </c>
       <c r="F45">
-        <v>1.778389225262105</v>
+        <v>8.00275151367947</v>
       </c>
       <c r="G45">
-        <v>3.520503364177351</v>
+        <v>15.84226513879808</v>
       </c>
       <c r="H45">
-        <v>0.2265893210653802</v>
+        <v>1.019651944794211</v>
       </c>
       <c r="I45">
-        <v>17.50847704078331</v>
+        <v>78.78814668352489</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1651,28 +1651,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>6.833742350125617</v>
+        <v>30.75184057556528</v>
       </c>
       <c r="C46">
-        <v>0.5077098030814237</v>
+        <v>2.284694113866406</v>
       </c>
       <c r="D46">
-        <v>2.244484830254147</v>
+        <v>10.10018173614366</v>
       </c>
       <c r="E46">
-        <v>2.697519051023117</v>
+        <v>12.13883572960402</v>
       </c>
       <c r="F46">
-        <v>2.355788324373178</v>
+        <v>10.6010474596793</v>
       </c>
       <c r="G46">
-        <v>4.724886094027497</v>
+        <v>21.26198742312373</v>
       </c>
       <c r="H46">
-        <v>0.1812714568523041</v>
+        <v>0.8157215558353687</v>
       </c>
       <c r="I46">
-        <v>19.54540190973728</v>
+        <v>87.95430859381777</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1680,28 +1680,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>5.290639238806929</v>
+        <v>23.80787657463119</v>
       </c>
       <c r="C47">
-        <v>0.8123356849302777</v>
+        <v>3.65551058218625</v>
       </c>
       <c r="D47">
-        <v>1.662581355743813</v>
+        <v>7.481616100847157</v>
       </c>
       <c r="E47">
-        <v>2.276031699300755</v>
+        <v>10.2421426468534</v>
       </c>
       <c r="F47">
-        <v>2.910091459519808</v>
+        <v>13.09541156783914</v>
       </c>
       <c r="G47">
-        <v>5.095465395519851</v>
+        <v>22.92959427983932</v>
       </c>
       <c r="H47">
-        <v>0.6797679631961407</v>
+        <v>3.058955834382633</v>
       </c>
       <c r="I47">
-        <v>18.72691279701758</v>
+        <v>84.27110758657908</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1709,28 +1709,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>5.841747492849315</v>
+        <v>26.28786371782193</v>
       </c>
       <c r="C48">
-        <v>0.9646486258547048</v>
+        <v>4.340918816346171</v>
       </c>
       <c r="D48">
-        <v>2.826388304764481</v>
+        <v>12.71874737144017</v>
       </c>
       <c r="E48">
-        <v>2.023139288267337</v>
+        <v>9.104126797203021</v>
       </c>
       <c r="F48">
-        <v>2.448172180230949</v>
+        <v>11.01677481103927</v>
       </c>
       <c r="G48">
-        <v>3.891082665669702</v>
+        <v>17.50987199551366</v>
       </c>
       <c r="H48">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I48">
-        <v>18.08581428606264</v>
+        <v>81.38616428728191</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1738,28 +1738,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>6.163227307707379</v>
+        <v>27.73452288468319</v>
       </c>
       <c r="C49">
-        <v>0.990034116008776</v>
+        <v>4.455153522039491</v>
       </c>
       <c r="D49">
-        <v>2.410742965828528</v>
+        <v>10.84834334622838</v>
       </c>
       <c r="E49">
-        <v>1.938841817922865</v>
+        <v>8.724788180652892</v>
       </c>
       <c r="F49">
-        <v>2.448172180230949</v>
+        <v>11.01677481103927</v>
       </c>
       <c r="G49">
-        <v>8.893903235816465</v>
+        <v>40.02256456117409</v>
       </c>
       <c r="H49">
-        <v>0.04531786421307603</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="I49">
-        <v>22.89023948772804</v>
+        <v>103.0060776947761</v>
       </c>
     </row>
   </sheetData>
